--- a/Documents/STM32F407VET6 pinout options.xlsx
+++ b/Documents/STM32F407VET6 pinout options.xlsx
@@ -18,6 +18,7 @@
     <sheet name="TFT and DBG" sheetId="3" r:id="rId4"/>
     <sheet name=" v1 and Ko" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Pretty Pinouts" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm.Print_Area" localSheetId="0">MAIN!$B$1:$AE$65</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="711">
   <si>
     <t>"Black" STM32F4VET6 Board Pinouts</t>
   </si>
@@ -2787,6 +2788,200 @@
   <si>
     <t>Ver 3.0 – 14 April 2017 - RP</t>
   </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Alternates</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Dig/PWM</t>
+  </si>
+  <si>
+    <t>PORTA</t>
+  </si>
+  <si>
+    <t>PORTB</t>
+  </si>
+  <si>
+    <t>PORTC</t>
+  </si>
+  <si>
+    <t>PORTD</t>
+  </si>
+  <si>
+    <t>PORTE</t>
+  </si>
+  <si>
+    <t>PORTF</t>
+  </si>
+  <si>
+    <t>Ports</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial </t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>VREF-</t>
+  </si>
+  <si>
+    <t>VREF+</t>
+  </si>
+  <si>
+    <t>USB_DM</t>
+  </si>
+  <si>
+    <t>SD_CK</t>
+  </si>
+  <si>
+    <t>SD_D2</t>
+  </si>
+  <si>
+    <t>SD_D0</t>
+  </si>
+  <si>
+    <t>SD_D1</t>
+  </si>
+  <si>
+    <t>SD_D3</t>
+  </si>
+  <si>
+    <t>SD_CMD</t>
+  </si>
+  <si>
+    <t>USB_DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NSS3</t>
+  </si>
+  <si>
+    <t>Port 
+5V tolerant</t>
+  </si>
+  <si>
+    <t>Not
+5v tolerant</t>
+  </si>
+  <si>
+    <t>SPI (I2S)</t>
+  </si>
+  <si>
+    <t>CS_FLASH</t>
+  </si>
+  <si>
+    <t>BT0</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>SYS-WKUP</t>
+  </si>
+  <si>
+    <t>DB13</t>
+  </si>
+  <si>
+    <t>DB11</t>
+  </si>
+  <si>
+    <t>DB9</t>
+  </si>
+  <si>
+    <t>DB7</t>
+  </si>
+  <si>
+    <t>DB5</t>
+  </si>
+  <si>
+    <t>DB3</t>
+  </si>
+  <si>
+    <t>DB12</t>
+  </si>
+  <si>
+    <t>DB10</t>
+  </si>
+  <si>
+    <t>DB8</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>DB4</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>SO (MOSI)</t>
+  </si>
+  <si>
+    <t>SI (MISO)</t>
+  </si>
+  <si>
+    <t>DB08</t>
+  </si>
+  <si>
+    <t>DB06</t>
+  </si>
+  <si>
+    <t>DB04</t>
+  </si>
+  <si>
+    <t>DB02</t>
+  </si>
+  <si>
+    <t>DB03</t>
+  </si>
+  <si>
+    <t>DB05</t>
+  </si>
+  <si>
+    <t>DB07</t>
+  </si>
+  <si>
+    <t>DB09</t>
+  </si>
+  <si>
+    <t>Vsup 3.3v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTCK </t>
+  </si>
+  <si>
+    <t>nSRST</t>
+  </si>
+  <si>
+    <t>STLINK V2</t>
+  </si>
+  <si>
+    <t>JTAG Pin</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
 </sst>
 </file>
 
@@ -2795,7 +2990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3088,8 +3283,55 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="55"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3282,8 +3524,188 @@
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBFF"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="63"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -3816,6 +4238,289 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3829,7 +4534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4553,6 +5258,111 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="31" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4574,98 +5384,432 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="52" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="60" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="61" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="59" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="52" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="57" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="53" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="52" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="58" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="62" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="61" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="61" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4745,6 +5889,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00222222"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FF33CCFF"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5141,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5206,63 +6362,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="256"/>
-      <c r="O1" s="256"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="256"/>
-      <c r="AA1" s="256"/>
-      <c r="AB1" s="256"/>
-      <c r="AC1" s="256"/>
-      <c r="AD1" s="256"/>
-      <c r="AE1" s="256"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="290"/>
+      <c r="T1" s="290"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="290"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="290"/>
+      <c r="Y1" s="290"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="290"/>
+      <c r="AB1" s="290"/>
+      <c r="AC1" s="290"/>
+      <c r="AD1" s="290"/>
+      <c r="AE1" s="290"/>
     </row>
     <row r="2" spans="1:62" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="H2" s="257" t="s">
+      <c r="H2" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
@@ -6176,7 +7332,7 @@
         <v>8</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>35</v>
+        <v>659</v>
       </c>
       <c r="P13" s="63" t="s">
         <v>21</v>
@@ -6581,9 +7737,6 @@
       <c r="V17" s="55">
         <v>7</v>
       </c>
-      <c r="W17" s="40" t="s">
-        <v>58</v>
-      </c>
       <c r="X17" s="79">
         <v>2.1</v>
       </c>
@@ -6691,7 +7844,9 @@
       <c r="V18" s="55">
         <v>8</v>
       </c>
-      <c r="W18" s="40"/>
+      <c r="W18" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="X18" s="79" t="s">
         <v>66</v>
       </c>
@@ -6840,7 +7995,7 @@
       <c r="A20" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="266" t="s">
+      <c r="B20" s="260" t="s">
         <v>347</v>
       </c>
       <c r="C20" s="48"/>
@@ -7654,25 +8809,25 @@
       <c r="E28" s="108"/>
       <c r="F28" s="108"/>
       <c r="G28" s="109"/>
-      <c r="H28" s="258" t="s">
+      <c r="H28" s="292" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="258"/>
-      <c r="J28" s="258"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="258"/>
-      <c r="M28" s="290"/>
-      <c r="N28" s="258"/>
-      <c r="O28" s="258"/>
-      <c r="P28" s="258"/>
-      <c r="Q28" s="258"/>
-      <c r="R28" s="258"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="258"/>
-      <c r="W28" s="258"/>
-      <c r="X28" s="258"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="293"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="292"/>
+      <c r="Q28" s="292"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="293"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="292"/>
       <c r="Y28" s="108"/>
       <c r="Z28" s="109"/>
       <c r="AA28" s="108"/>
@@ -7745,15 +8900,15 @@
       <c r="K29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="292" t="str">
+      <c r="L29" s="285" t="str">
         <f>L3</f>
         <v>A – Cube Black F407 v2</v>
       </c>
-      <c r="M29" s="294" t="str">
+      <c r="M29" s="287" t="str">
         <f>M3</f>
         <v>Arduino Pin</v>
       </c>
-      <c r="N29" s="293" t="str">
+      <c r="N29" s="286" t="str">
         <f>N3</f>
         <v>C – Outside-inside</v>
       </c>
@@ -7773,15 +8928,15 @@
       <c r="S29" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="T29" s="288" t="str">
+      <c r="T29" s="282" t="str">
         <f>N29</f>
         <v>C – Outside-inside</v>
       </c>
-      <c r="U29" s="291" t="str">
+      <c r="U29" s="284" t="str">
         <f>M29</f>
         <v>Arduino Pin</v>
       </c>
-      <c r="V29" s="289" t="str">
+      <c r="V29" s="283" t="str">
         <f>L29</f>
         <v>A – Cube Black F407 v2</v>
       </c>
@@ -7828,9 +8983,9 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="267"/>
-      <c r="M30" s="277"/>
-      <c r="N30" s="272"/>
+      <c r="L30" s="261"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="266"/>
       <c r="O30" s="32" t="s">
         <v>18</v>
       </c>
@@ -7842,9 +8997,9 @@
       <c r="S30" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="267"/>
-      <c r="U30" s="277"/>
-      <c r="V30" s="272"/>
+      <c r="T30" s="261"/>
+      <c r="U30" s="271"/>
+      <c r="V30" s="266"/>
       <c r="W30" s="28"/>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
@@ -7869,9 +9024,9 @@
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
-      <c r="L31" s="267"/>
-      <c r="M31" s="277"/>
-      <c r="N31" s="272"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="266"/>
       <c r="O31" s="39" t="s">
         <v>18</v>
       </c>
@@ -7883,9 +9038,9 @@
       <c r="S31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T31" s="267"/>
-      <c r="U31" s="277"/>
-      <c r="V31" s="272"/>
+      <c r="T31" s="261"/>
+      <c r="U31" s="271"/>
+      <c r="V31" s="266"/>
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
@@ -7910,9 +9065,9 @@
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
       <c r="K32" s="38"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="273"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="272"/>
+      <c r="N32" s="267"/>
       <c r="O32" s="122" t="s">
         <v>107</v>
       </c>
@@ -7924,9 +9079,9 @@
       <c r="S32" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="T32" s="281"/>
-      <c r="U32" s="287"/>
-      <c r="V32" s="284"/>
+      <c r="T32" s="275"/>
+      <c r="U32" s="281"/>
+      <c r="V32" s="278"/>
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
@@ -7954,9 +9109,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="277"/>
-      <c r="N33" s="272"/>
+      <c r="L33" s="261"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="266"/>
       <c r="O33" s="39" t="s">
         <v>19</v>
       </c>
@@ -7968,9 +9123,9 @@
       <c r="S33" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="T33" s="267"/>
-      <c r="U33" s="277"/>
-      <c r="V33" s="272"/>
+      <c r="T33" s="261"/>
+      <c r="U33" s="271"/>
+      <c r="V33" s="266"/>
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
@@ -7996,9 +9151,9 @@
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
-      <c r="L34" s="269"/>
-      <c r="M34" s="279"/>
-      <c r="N34" s="274"/>
+      <c r="L34" s="263"/>
+      <c r="M34" s="273"/>
+      <c r="N34" s="268"/>
       <c r="O34" s="46" t="s">
         <v>19</v>
       </c>
@@ -8010,9 +9165,9 @@
       <c r="S34" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="T34" s="269"/>
-      <c r="U34" s="279"/>
-      <c r="V34" s="274"/>
+      <c r="T34" s="263"/>
+      <c r="U34" s="273"/>
+      <c r="V34" s="268"/>
       <c r="W34" s="42"/>
       <c r="X34" s="42"/>
       <c r="Y34" s="42"/>
@@ -8042,13 +9197,13 @@
       <c r="K35" s="40">
         <v>64</v>
       </c>
-      <c r="L35" s="270">
+      <c r="L35" s="264">
         <v>18</v>
       </c>
-      <c r="M35" s="280">
+      <c r="M35" s="274">
         <v>36</v>
       </c>
-      <c r="N35" s="275">
+      <c r="N35" s="269">
         <v>37</v>
       </c>
       <c r="O35" s="83" t="s">
@@ -8066,13 +9221,13 @@
       <c r="S35" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="T35" s="282">
+      <c r="T35" s="276">
         <v>36</v>
       </c>
-      <c r="U35" s="280">
+      <c r="U35" s="274">
         <v>37</v>
       </c>
-      <c r="V35" s="285">
+      <c r="V35" s="279">
         <v>55</v>
       </c>
       <c r="W35" s="40"/>
@@ -8114,13 +9269,13 @@
       <c r="K36" s="40">
         <v>65</v>
       </c>
-      <c r="L36" s="270">
+      <c r="L36" s="264">
         <v>19</v>
       </c>
-      <c r="M36" s="280">
+      <c r="M36" s="274">
         <v>38</v>
       </c>
-      <c r="N36" s="275">
+      <c r="N36" s="269">
         <v>39</v>
       </c>
       <c r="O36" s="82" t="s">
@@ -8138,13 +9293,13 @@
       <c r="S36" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="T36" s="282">
+      <c r="T36" s="276">
         <v>38</v>
       </c>
-      <c r="U36" s="280">
+      <c r="U36" s="274">
         <v>39</v>
       </c>
-      <c r="V36" s="285">
+      <c r="V36" s="279">
         <v>56</v>
       </c>
       <c r="W36" s="40"/>
@@ -8188,13 +9343,13 @@
       <c r="K37" s="40">
         <v>66</v>
       </c>
-      <c r="L37" s="270">
+      <c r="L37" s="264">
         <v>20</v>
       </c>
-      <c r="M37" s="280">
+      <c r="M37" s="274">
         <v>40</v>
       </c>
-      <c r="N37" s="275">
+      <c r="N37" s="269">
         <v>41</v>
       </c>
       <c r="O37" s="82" t="s">
@@ -8212,13 +9367,13 @@
       <c r="S37" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="T37" s="282">
+      <c r="T37" s="276">
         <v>40</v>
       </c>
-      <c r="U37" s="280">
+      <c r="U37" s="274">
         <v>41</v>
       </c>
-      <c r="V37" s="285">
+      <c r="V37" s="279">
         <v>57</v>
       </c>
       <c r="W37" s="40"/>
@@ -8264,13 +9419,13 @@
       <c r="K38" s="40">
         <v>67</v>
       </c>
-      <c r="L38" s="270">
+      <c r="L38" s="264">
         <v>21</v>
       </c>
-      <c r="M38" s="280">
+      <c r="M38" s="274">
         <v>42</v>
       </c>
-      <c r="N38" s="275">
+      <c r="N38" s="269">
         <v>43</v>
       </c>
       <c r="O38" s="82" t="s">
@@ -8288,13 +9443,13 @@
       <c r="S38" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="T38" s="282">
+      <c r="T38" s="276">
         <v>42</v>
       </c>
-      <c r="U38" s="280">
+      <c r="U38" s="274">
         <v>43</v>
       </c>
-      <c r="V38" s="285">
+      <c r="V38" s="279">
         <v>58</v>
       </c>
       <c r="W38" s="128" t="s">
@@ -8338,13 +9493,13 @@
       <c r="K39" s="40">
         <v>29</v>
       </c>
-      <c r="L39" s="270">
+      <c r="L39" s="264">
         <v>22</v>
       </c>
-      <c r="M39" s="280">
+      <c r="M39" s="274">
         <v>44</v>
       </c>
-      <c r="N39" s="275">
+      <c r="N39" s="269">
         <v>45</v>
       </c>
       <c r="O39" s="130" t="s">
@@ -8362,13 +9517,13 @@
       <c r="S39" s="130" t="s">
         <v>528</v>
       </c>
-      <c r="T39" s="282">
+      <c r="T39" s="276">
         <v>44</v>
       </c>
-      <c r="U39" s="280">
+      <c r="U39" s="274">
         <v>45</v>
       </c>
-      <c r="V39" s="285">
+      <c r="V39" s="279">
         <v>59</v>
       </c>
       <c r="W39" s="40"/>
@@ -8406,13 +9561,13 @@
       <c r="K40" s="40">
         <v>30</v>
       </c>
-      <c r="L40" s="270">
+      <c r="L40" s="264">
         <v>23</v>
       </c>
-      <c r="M40" s="280">
+      <c r="M40" s="274">
         <v>46</v>
       </c>
-      <c r="N40" s="275">
+      <c r="N40" s="269">
         <v>47</v>
       </c>
       <c r="O40" s="130" t="s">
@@ -8430,13 +9585,13 @@
       <c r="S40" s="130" t="s">
         <v>392</v>
       </c>
-      <c r="T40" s="282">
+      <c r="T40" s="276">
         <v>46</v>
       </c>
-      <c r="U40" s="280">
+      <c r="U40" s="274">
         <v>47</v>
       </c>
-      <c r="V40" s="285">
+      <c r="V40" s="279">
         <v>60</v>
       </c>
       <c r="W40" s="40"/>
@@ -8474,13 +9629,13 @@
       <c r="K41" s="40">
         <v>31</v>
       </c>
-      <c r="L41" s="270">
+      <c r="L41" s="264">
         <v>24</v>
       </c>
-      <c r="M41" s="280">
+      <c r="M41" s="274">
         <v>48</v>
       </c>
-      <c r="N41" s="275">
+      <c r="N41" s="269">
         <v>49</v>
       </c>
       <c r="O41" s="130" t="s">
@@ -8498,13 +9653,13 @@
       <c r="S41" s="130" t="s">
         <v>387</v>
       </c>
-      <c r="T41" s="282">
+      <c r="T41" s="276">
         <v>48</v>
       </c>
-      <c r="U41" s="280">
+      <c r="U41" s="274">
         <v>49</v>
       </c>
-      <c r="V41" s="285">
+      <c r="V41" s="279">
         <v>61</v>
       </c>
       <c r="W41" s="131" t="s">
@@ -8544,13 +9699,13 @@
       <c r="K42" s="40">
         <v>32</v>
       </c>
-      <c r="L42" s="270">
+      <c r="L42" s="264">
         <v>25</v>
       </c>
-      <c r="M42" s="280">
+      <c r="M42" s="274">
         <v>50</v>
       </c>
-      <c r="N42" s="275">
+      <c r="N42" s="269">
         <v>51</v>
       </c>
       <c r="O42" s="130" t="s">
@@ -8568,13 +9723,13 @@
       <c r="S42" s="130" t="s">
         <v>529</v>
       </c>
-      <c r="T42" s="282">
+      <c r="T42" s="276">
         <v>50</v>
       </c>
-      <c r="U42" s="280">
+      <c r="U42" s="274">
         <v>51</v>
       </c>
-      <c r="V42" s="285">
+      <c r="V42" s="279">
         <v>62</v>
       </c>
       <c r="W42" s="40"/>
@@ -8616,13 +9771,13 @@
       <c r="K43" s="128">
         <v>33</v>
       </c>
-      <c r="L43" s="270">
+      <c r="L43" s="264">
         <v>26</v>
       </c>
-      <c r="M43" s="280">
+      <c r="M43" s="274">
         <v>52</v>
       </c>
-      <c r="N43" s="275">
+      <c r="N43" s="269">
         <v>53</v>
       </c>
       <c r="O43" s="59" t="s">
@@ -8640,13 +9795,13 @@
       <c r="S43" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="T43" s="282">
+      <c r="T43" s="276">
         <v>52</v>
       </c>
-      <c r="U43" s="280">
+      <c r="U43" s="274">
         <v>53</v>
       </c>
-      <c r="V43" s="285">
+      <c r="V43" s="279">
         <v>63</v>
       </c>
       <c r="W43" s="131" t="s">
@@ -8694,13 +9849,13 @@
       <c r="K44" s="128">
         <v>34</v>
       </c>
-      <c r="L44" s="270">
+      <c r="L44" s="264">
         <v>27</v>
       </c>
-      <c r="M44" s="280">
+      <c r="M44" s="274">
         <v>54</v>
       </c>
-      <c r="N44" s="275">
+      <c r="N44" s="269">
         <v>55</v>
       </c>
       <c r="O44" s="59" t="s">
@@ -8718,13 +9873,13 @@
       <c r="S44" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="T44" s="282">
+      <c r="T44" s="276">
         <v>54</v>
       </c>
-      <c r="U44" s="280">
+      <c r="U44" s="274">
         <v>55</v>
       </c>
-      <c r="V44" s="285">
+      <c r="V44" s="279">
         <v>64</v>
       </c>
       <c r="W44" s="128" t="s">
@@ -8768,13 +9923,13 @@
       <c r="K45" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="L45" s="270">
+      <c r="L45" s="264">
         <v>28</v>
       </c>
-      <c r="M45" s="280">
+      <c r="M45" s="274">
         <v>56</v>
       </c>
-      <c r="N45" s="275">
+      <c r="N45" s="269">
         <v>57</v>
       </c>
       <c r="O45" s="74" t="s">
@@ -8792,13 +9947,13 @@
       <c r="S45" s="74" t="s">
         <v>531</v>
       </c>
-      <c r="T45" s="282">
+      <c r="T45" s="276">
         <v>56</v>
       </c>
-      <c r="U45" s="280">
+      <c r="U45" s="274">
         <v>57</v>
       </c>
-      <c r="V45" s="285">
+      <c r="V45" s="279">
         <v>65</v>
       </c>
       <c r="W45" s="40"/>
@@ -8842,13 +9997,13 @@
       <c r="K46" s="40">
         <v>35</v>
       </c>
-      <c r="L46" s="270">
+      <c r="L46" s="264">
         <v>29</v>
       </c>
-      <c r="M46" s="280">
+      <c r="M46" s="274">
         <v>58</v>
       </c>
-      <c r="N46" s="275">
+      <c r="N46" s="269">
         <v>59</v>
       </c>
       <c r="O46" s="74" t="s">
@@ -8866,13 +10021,13 @@
       <c r="S46" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="T46" s="282">
+      <c r="T46" s="276">
         <v>58</v>
       </c>
-      <c r="U46" s="280">
+      <c r="U46" s="274">
         <v>59</v>
       </c>
-      <c r="V46" s="285">
+      <c r="V46" s="279">
         <v>66</v>
       </c>
       <c r="W46" s="137" t="s">
@@ -8891,7 +10046,7 @@
       </c>
       <c r="AC46" s="37"/>
       <c r="AD46" s="37"/>
-      <c r="AE46" s="295" t="s">
+      <c r="AE46" s="288" t="s">
         <v>157</v>
       </c>
       <c r="AF46" s="123" t="s">
@@ -8924,13 +10079,13 @@
       <c r="K47" s="40">
         <v>36</v>
       </c>
-      <c r="L47" s="270">
+      <c r="L47" s="264">
         <v>30</v>
       </c>
-      <c r="M47" s="280">
+      <c r="M47" s="274">
         <v>60</v>
       </c>
-      <c r="N47" s="275">
+      <c r="N47" s="269">
         <v>61</v>
       </c>
       <c r="O47" s="74" t="s">
@@ -8948,13 +10103,13 @@
       <c r="S47" s="139" t="s">
         <v>533</v>
       </c>
-      <c r="T47" s="282">
+      <c r="T47" s="276">
         <v>60</v>
       </c>
-      <c r="U47" s="280">
+      <c r="U47" s="274">
         <v>61</v>
       </c>
-      <c r="V47" s="285">
+      <c r="V47" s="279">
         <v>67</v>
       </c>
       <c r="W47" s="140" t="s">
@@ -9000,13 +10155,13 @@
       <c r="K48" s="128">
         <v>37</v>
       </c>
-      <c r="L48" s="270">
+      <c r="L48" s="264">
         <v>31</v>
       </c>
-      <c r="M48" s="280">
+      <c r="M48" s="274">
         <v>62</v>
       </c>
-      <c r="N48" s="275">
+      <c r="N48" s="269">
         <v>63</v>
       </c>
       <c r="O48" s="139" t="s">
@@ -9024,13 +10179,13 @@
       <c r="S48" s="139" t="s">
         <v>534</v>
       </c>
-      <c r="T48" s="282">
+      <c r="T48" s="276">
         <v>62</v>
       </c>
-      <c r="U48" s="280">
+      <c r="U48" s="274">
         <v>63</v>
       </c>
-      <c r="V48" s="285">
+      <c r="V48" s="279">
         <v>68</v>
       </c>
       <c r="W48" s="33"/>
@@ -9048,7 +10203,7 @@
       </c>
       <c r="AD48" s="27"/>
       <c r="AE48" s="27"/>
-      <c r="AF48" s="296" t="s">
+      <c r="AF48" s="289" t="s">
         <v>635</v>
       </c>
       <c r="AH48" s="61"/>
@@ -9076,13 +10231,13 @@
       <c r="K49" s="40">
         <v>38</v>
       </c>
-      <c r="L49" s="270">
+      <c r="L49" s="264">
         <v>32</v>
       </c>
-      <c r="M49" s="280">
+      <c r="M49" s="274">
         <v>64</v>
       </c>
-      <c r="N49" s="275">
+      <c r="N49" s="269">
         <v>65</v>
       </c>
       <c r="O49" s="139" t="s">
@@ -9100,13 +10255,13 @@
       <c r="S49" s="141" t="s">
         <v>388</v>
       </c>
-      <c r="T49" s="282">
+      <c r="T49" s="276">
         <v>64</v>
       </c>
-      <c r="U49" s="280">
+      <c r="U49" s="274">
         <v>65</v>
       </c>
-      <c r="V49" s="285">
+      <c r="V49" s="279">
         <v>69</v>
       </c>
       <c r="W49" s="33"/>
@@ -9144,13 +10299,13 @@
       <c r="K50" s="40">
         <v>19</v>
       </c>
-      <c r="L50" s="270">
+      <c r="L50" s="264">
         <v>33</v>
       </c>
-      <c r="M50" s="280">
+      <c r="M50" s="274">
         <v>66</v>
       </c>
-      <c r="N50" s="275">
+      <c r="N50" s="269">
         <v>67</v>
       </c>
       <c r="O50" s="130" t="s">
@@ -9168,13 +10323,13 @@
       <c r="S50" s="141" t="s">
         <v>477</v>
       </c>
-      <c r="T50" s="282">
+      <c r="T50" s="276">
         <v>66</v>
       </c>
-      <c r="U50" s="280">
+      <c r="U50" s="274">
         <v>67</v>
       </c>
-      <c r="V50" s="285">
+      <c r="V50" s="279">
         <v>70</v>
       </c>
       <c r="W50" s="40"/>
@@ -9214,13 +10369,13 @@
       <c r="K51" s="40">
         <v>18</v>
       </c>
-      <c r="L51" s="270">
+      <c r="L51" s="264">
         <v>34</v>
       </c>
-      <c r="M51" s="280">
+      <c r="M51" s="274">
         <v>68</v>
       </c>
-      <c r="N51" s="275">
+      <c r="N51" s="269">
         <v>69</v>
       </c>
       <c r="O51" s="141" t="s">
@@ -9238,13 +10393,13 @@
       <c r="S51" s="130" t="s">
         <v>535</v>
       </c>
-      <c r="T51" s="282">
+      <c r="T51" s="276">
         <v>68</v>
       </c>
-      <c r="U51" s="280">
+      <c r="U51" s="274">
         <v>69</v>
       </c>
-      <c r="V51" s="285">
+      <c r="V51" s="279">
         <v>71</v>
       </c>
       <c r="W51" s="33"/>
@@ -9282,13 +10437,13 @@
       <c r="K52" s="81">
         <v>17</v>
       </c>
-      <c r="L52" s="270">
+      <c r="L52" s="264">
         <v>35</v>
       </c>
-      <c r="M52" s="280">
+      <c r="M52" s="274">
         <v>70</v>
       </c>
-      <c r="N52" s="275">
+      <c r="N52" s="269">
         <v>71</v>
       </c>
       <c r="O52" s="130" t="s">
@@ -9306,13 +10461,13 @@
       <c r="S52" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="T52" s="282">
+      <c r="T52" s="276">
         <v>70</v>
       </c>
-      <c r="U52" s="280">
+      <c r="U52" s="274">
         <v>71</v>
       </c>
-      <c r="V52" s="285">
+      <c r="V52" s="279">
         <v>72</v>
       </c>
       <c r="W52" s="40"/>
@@ -9350,13 +10505,13 @@
       <c r="K53" s="108">
         <v>16</v>
       </c>
-      <c r="L53" s="271">
+      <c r="L53" s="265">
         <v>36</v>
       </c>
-      <c r="M53" s="280">
+      <c r="M53" s="274">
         <v>72</v>
       </c>
-      <c r="N53" s="276">
+      <c r="N53" s="270">
         <v>73</v>
       </c>
       <c r="O53" s="144" t="s">
@@ -9374,13 +10529,13 @@
       <c r="S53" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="T53" s="283">
+      <c r="T53" s="277">
         <v>72</v>
       </c>
-      <c r="U53" s="280">
+      <c r="U53" s="274">
         <v>73</v>
       </c>
-      <c r="V53" s="286">
+      <c r="V53" s="280">
         <v>73</v>
       </c>
       <c r="W53" s="108"/>
@@ -9753,16 +10908,16 @@
       <c r="A100" s="164" t="s">
         <v>509</v>
       </c>
-      <c r="B100" s="259" t="s">
+      <c r="B100" s="294" t="s">
         <v>563</v>
       </c>
-      <c r="C100" s="259"/>
-      <c r="D100" s="259"/>
-      <c r="E100" s="259"/>
-      <c r="F100" s="260" t="s">
+      <c r="C100" s="294"/>
+      <c r="D100" s="294"/>
+      <c r="E100" s="294"/>
+      <c r="F100" s="295" t="s">
         <v>567</v>
       </c>
-      <c r="G100" s="261"/>
+      <c r="G100" s="296"/>
       <c r="M100" s="61"/>
       <c r="N100" s="61"/>
     </row>
@@ -12467,8 +13622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="I37" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12491,10 +13646,10 @@
     <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="190"/>
       <c r="B1" s="190"/>
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="262"/>
+      <c r="G1" s="297"/>
       <c r="J1" s="191"/>
       <c r="L1" s="192" t="s">
         <v>302</v>
@@ -12515,10 +13670,10 @@
       <c r="C2" s="194"/>
       <c r="D2" s="195"/>
       <c r="E2" s="196"/>
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="298" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="263"/>
+      <c r="G2" s="298"/>
       <c r="H2" s="196"/>
       <c r="I2" s="197"/>
       <c r="J2" s="198" t="s">
@@ -13053,13 +14208,13 @@
       <c r="K40" s="240" t="s">
         <v>494</v>
       </c>
-      <c r="L40" s="264" t="s">
+      <c r="L40" s="299" t="s">
         <v>479</v>
       </c>
-      <c r="M40" s="264"/>
-      <c r="N40" s="264"/>
-      <c r="O40" s="264"/>
-      <c r="P40" s="264"/>
+      <c r="M40" s="299"/>
+      <c r="N40" s="299"/>
+      <c r="O40" s="299"/>
+      <c r="P40" s="299"/>
       <c r="Q40" s="240" t="s">
         <v>494</v>
       </c>
@@ -13121,6 +14276,9 @@
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K44" s="189" t="s">
+        <v>680</v>
+      </c>
       <c r="L44" s="216" t="s">
         <v>179</v>
       </c>
@@ -13136,8 +14294,14 @@
       <c r="P44" s="216" t="s">
         <v>367</v>
       </c>
+      <c r="Q44" s="189" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K45" s="189" t="s">
+        <v>681</v>
+      </c>
       <c r="L45" s="216" t="s">
         <v>368</v>
       </c>
@@ -13153,8 +14317,14 @@
       <c r="P45" s="216" t="s">
         <v>371</v>
       </c>
+      <c r="Q45" s="189" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K46" s="189" t="s">
+        <v>682</v>
+      </c>
       <c r="L46" s="216" t="s">
         <v>372</v>
       </c>
@@ -13170,8 +14340,14 @@
       <c r="P46" s="216" t="s">
         <v>375</v>
       </c>
+      <c r="Q46" s="189" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K47" s="189" t="s">
+        <v>683</v>
+      </c>
       <c r="L47" s="216" t="s">
         <v>376</v>
       </c>
@@ -13187,8 +14363,14 @@
       <c r="P47" s="216" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="48" spans="3:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="189" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="K48" s="189" t="s">
+        <v>684</v>
+      </c>
       <c r="L48" s="216" t="s">
         <v>380</v>
       </c>
@@ -13204,8 +14386,14 @@
       <c r="P48" s="216" t="s">
         <v>383</v>
       </c>
+      <c r="Q48" s="189" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="49" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K49" s="189" t="s">
+        <v>685</v>
+      </c>
       <c r="L49" s="216" t="s">
         <v>384</v>
       </c>
@@ -13220,6 +14408,9 @@
       </c>
       <c r="P49" s="216" t="s">
         <v>387</v>
+      </c>
+      <c r="Q49" s="189" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="11:17" x14ac:dyDescent="0.2">
@@ -14517,16 +15708,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="300" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="168" t="s">
@@ -14834,4 +16025,4468 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:BU89"/>
+  <sheetViews>
+    <sheetView topLeftCell="H52" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83:Q83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" customWidth="1"/>
+    <col min="39" max="39" width="3.5703125" customWidth="1"/>
+    <col min="41" max="41" width="3" customWidth="1"/>
+    <col min="43" max="43" width="5.5703125" customWidth="1"/>
+    <col min="44" max="44" width="9.85546875" customWidth="1"/>
+    <col min="48" max="48" width="7" customWidth="1"/>
+    <col min="49" max="49" width="1.140625" customWidth="1"/>
+    <col min="50" max="50" width="2.85546875" customWidth="1"/>
+    <col min="51" max="51" width="2.42578125" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" customWidth="1"/>
+    <col min="53" max="54" width="1" customWidth="1"/>
+    <col min="55" max="55" width="9.28515625" customWidth="1"/>
+    <col min="56" max="56" width="8.5703125" customWidth="1"/>
+    <col min="62" max="62" width="0.85546875" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="8.42578125" customWidth="1"/>
+    <col min="64" max="65" width="1.28515625" customWidth="1"/>
+    <col min="67" max="67" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:73" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="340" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="256"/>
+      <c r="D5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="256"/>
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="256"/>
+      <c r="S5" s="256"/>
+      <c r="T5" s="256"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="256"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+    </row>
+    <row r="6" spans="3:73" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="257"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="257"/>
+      <c r="R6" s="257"/>
+      <c r="S6" s="257"/>
+      <c r="T6" s="257"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="257"/>
+      <c r="AY6" s="190"/>
+      <c r="AZ6" s="190"/>
+      <c r="BA6" s="410"/>
+      <c r="BC6" s="189"/>
+      <c r="BD6" s="189"/>
+      <c r="BE6" s="189"/>
+      <c r="BF6" s="297" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG6" s="297"/>
+      <c r="BH6" s="189"/>
+      <c r="BI6" s="189"/>
+      <c r="BK6" s="189"/>
+      <c r="BL6" s="189"/>
+      <c r="BM6" s="189"/>
+      <c r="BN6" s="192" t="s">
+        <v>302</v>
+      </c>
+      <c r="BO6" s="189"/>
+      <c r="BP6" s="189"/>
+      <c r="BQ6" s="189"/>
+      <c r="BR6" s="192" t="s">
+        <v>303</v>
+      </c>
+      <c r="BS6" s="189"/>
+      <c r="BT6" s="189"/>
+      <c r="BU6" s="188"/>
+    </row>
+    <row r="7" spans="3:73" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="305" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="306" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="307" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="308" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="309" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="310" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="311" t="s">
+        <v>645</v>
+      </c>
+      <c r="N7" s="312" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="312" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="313" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="312" t="str">
+        <f>O7</f>
+        <v>5v Tolerant</v>
+      </c>
+      <c r="R7" s="312" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="311" t="str">
+        <f>M7</f>
+        <v>Arduino Pin</v>
+      </c>
+      <c r="T7" s="310" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="309" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="308" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="307" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="306" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="305" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="7" t="str">
+        <f>D7</f>
+        <v>Special + USB</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="240" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL7" s="259" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM7" s="259"/>
+      <c r="AN7" s="259"/>
+      <c r="AO7" s="259"/>
+      <c r="AP7" s="259"/>
+      <c r="AR7" s="240" t="s">
+        <v>494</v>
+      </c>
+      <c r="BF7" s="414" t="s">
+        <v>707</v>
+      </c>
+      <c r="BG7" s="414"/>
+      <c r="BL7" s="410"/>
+      <c r="BM7" s="410"/>
+      <c r="BN7" s="200" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO7" s="199"/>
+      <c r="BP7" s="199"/>
+      <c r="BQ7" s="199"/>
+      <c r="BR7" s="200" t="s">
+        <v>307</v>
+      </c>
+      <c r="BS7" s="199"/>
+      <c r="BT7" s="199"/>
+      <c r="BU7" s="188"/>
+    </row>
+    <row r="8" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="341"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="342"/>
+      <c r="N8" s="343" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="344"/>
+      <c r="P8" s="345">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="343" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="342"/>
+      <c r="T8" s="342"/>
+      <c r="U8" s="342"/>
+      <c r="V8" s="342"/>
+      <c r="W8" s="341"/>
+      <c r="X8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="28"/>
+      <c r="AG8" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ8" s="358"/>
+      <c r="AK8" s="189"/>
+      <c r="AL8" s="407" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM8" s="358"/>
+      <c r="AN8" s="408" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO8" s="358"/>
+      <c r="AP8" s="407" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ8" s="189"/>
+      <c r="AR8" s="358"/>
+      <c r="AU8" s="215" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX8" s="188"/>
+      <c r="AY8" s="412" t="s">
+        <v>706</v>
+      </c>
+      <c r="AZ8" s="413"/>
+      <c r="BA8" s="428"/>
+      <c r="BK8" s="412" t="str">
+        <f>AY8</f>
+        <v>STLINK V2</v>
+      </c>
+      <c r="BL8" s="413"/>
+      <c r="BM8" s="428"/>
+      <c r="BN8" s="200" t="s">
+        <v>312</v>
+      </c>
+      <c r="BO8" s="189"/>
+      <c r="BP8" s="189"/>
+      <c r="BQ8" s="189"/>
+      <c r="BR8" s="200" t="s">
+        <v>313</v>
+      </c>
+      <c r="BS8" s="189"/>
+      <c r="BT8" s="189"/>
+      <c r="BU8" s="188"/>
+    </row>
+    <row r="9" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="341"/>
+      <c r="K9" s="342"/>
+      <c r="L9" s="342"/>
+      <c r="M9" s="342"/>
+      <c r="N9" s="343" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="344"/>
+      <c r="P9" s="345">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="343" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="342"/>
+      <c r="W9" s="341"/>
+      <c r="X9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
+      <c r="AG9" s="216" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ9" s="358"/>
+      <c r="AK9" s="358"/>
+      <c r="AL9" s="405" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM9" s="358"/>
+      <c r="AN9" s="408">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="358"/>
+      <c r="AP9" s="401" t="s">
+        <v>692</v>
+      </c>
+      <c r="AQ9" s="358"/>
+      <c r="AR9" s="373" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU9" s="239" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX9" s="188"/>
+      <c r="AY9" s="411"/>
+      <c r="BD9" s="394" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF9" s="205">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="205">
+        <v>2</v>
+      </c>
+      <c r="BI9" s="394" t="s">
+        <v>703</v>
+      </c>
+      <c r="BK9" s="415" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL9" s="409">
+        <v>7</v>
+      </c>
+      <c r="BM9" s="409"/>
+      <c r="BN9" s="200" t="s">
+        <v>317</v>
+      </c>
+      <c r="BO9" s="189"/>
+      <c r="BP9" s="189"/>
+      <c r="BQ9" s="189"/>
+      <c r="BR9" s="200" t="s">
+        <v>318</v>
+      </c>
+      <c r="BS9" s="189"/>
+      <c r="BT9" s="189"/>
+      <c r="BU9" s="188"/>
+    </row>
+    <row r="10" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
+      <c r="N10" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="344"/>
+      <c r="P10" s="345">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="344"/>
+      <c r="R10" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="342"/>
+      <c r="T10" s="342"/>
+      <c r="U10" s="342"/>
+      <c r="V10" s="342"/>
+      <c r="W10" s="341"/>
+      <c r="X10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="38"/>
+      <c r="AG10" s="217" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ10" s="391" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK10" s="402">
+        <v>70</v>
+      </c>
+      <c r="AL10" s="406" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM10" s="358"/>
+      <c r="AN10" s="408">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="358"/>
+      <c r="AP10" s="400" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ10" s="402">
+        <v>71</v>
+      </c>
+      <c r="AR10" s="391" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU10" s="217" t="s">
+        <v>363</v>
+      </c>
+      <c r="AX10" s="188"/>
+      <c r="AY10" s="411"/>
+      <c r="BC10" s="400" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD10" s="400" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF10" s="205">
+        <v>3</v>
+      </c>
+      <c r="BG10" s="205">
+        <v>4</v>
+      </c>
+      <c r="BI10" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK10" s="416" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL10" s="189">
+        <v>3</v>
+      </c>
+      <c r="BM10" s="189"/>
+      <c r="BN10" s="200" t="s">
+        <v>321</v>
+      </c>
+      <c r="BO10" s="189"/>
+      <c r="BP10" s="189"/>
+      <c r="BQ10" s="189"/>
+      <c r="BR10" s="200" t="s">
+        <v>322</v>
+      </c>
+      <c r="BS10" s="189"/>
+      <c r="BT10" s="189"/>
+      <c r="BU10" s="188"/>
+    </row>
+    <row r="11" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="342"/>
+      <c r="L11" s="342"/>
+      <c r="M11" s="342"/>
+      <c r="N11" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="344"/>
+      <c r="P11" s="345">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="344"/>
+      <c r="R11" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="342"/>
+      <c r="T11" s="342"/>
+      <c r="U11" s="342"/>
+      <c r="V11" s="342"/>
+      <c r="W11" s="341"/>
+      <c r="X11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="38"/>
+      <c r="AG11" s="217" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ11" s="391" t="s">
+        <v>680</v>
+      </c>
+      <c r="AK11" s="402">
+        <v>72</v>
+      </c>
+      <c r="AL11" s="400" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM11" s="358"/>
+      <c r="AN11" s="408">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="358"/>
+      <c r="AP11" s="400" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ11" s="402">
+        <v>30</v>
+      </c>
+      <c r="AR11" s="391" t="s">
+        <v>686</v>
+      </c>
+      <c r="AU11" s="217" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX11" s="188"/>
+      <c r="AY11" s="411"/>
+      <c r="BC11" s="400" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD11" s="400" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF11" s="205">
+        <v>5</v>
+      </c>
+      <c r="BG11" s="205">
+        <v>6</v>
+      </c>
+      <c r="BI11" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK11" s="189"/>
+      <c r="BL11" s="189"/>
+      <c r="BM11" s="189"/>
+      <c r="BN11" s="200" t="s">
+        <v>326</v>
+      </c>
+      <c r="BO11" s="189"/>
+      <c r="BP11" s="189"/>
+      <c r="BQ11" s="189"/>
+      <c r="BR11" s="189"/>
+      <c r="BS11" s="189"/>
+      <c r="BT11" s="189"/>
+      <c r="BU11" s="188"/>
+    </row>
+    <row r="12" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="344"/>
+      <c r="K12" s="346"/>
+      <c r="L12" s="346"/>
+      <c r="M12" s="346"/>
+      <c r="N12" s="347" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="344"/>
+      <c r="P12" s="345">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="344"/>
+      <c r="R12" s="347" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="346"/>
+      <c r="T12" s="346"/>
+      <c r="U12" s="346"/>
+      <c r="V12" s="346"/>
+      <c r="W12" s="344"/>
+      <c r="X12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="42"/>
+      <c r="AG12" s="217" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ12" s="391" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK12" s="402">
+        <v>29</v>
+      </c>
+      <c r="AL12" s="400" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM12" s="358"/>
+      <c r="AN12" s="408">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="358"/>
+      <c r="AP12" s="400" t="s">
+        <v>371</v>
+      </c>
+      <c r="AQ12" s="402">
+        <v>28</v>
+      </c>
+      <c r="AR12" s="391" t="s">
+        <v>687</v>
+      </c>
+      <c r="AU12" s="217" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX12" s="188"/>
+      <c r="AY12" s="189">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="373" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA12" s="430"/>
+      <c r="BC12" s="373" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD12" s="400" t="s">
+        <v>325</v>
+      </c>
+      <c r="BF12" s="205">
+        <v>7</v>
+      </c>
+      <c r="BG12" s="205">
+        <v>8</v>
+      </c>
+      <c r="BI12" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK12" s="189"/>
+      <c r="BL12" s="189"/>
+      <c r="BM12" s="189"/>
+      <c r="BN12" s="200" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO12" s="189"/>
+      <c r="BP12" s="189"/>
+      <c r="BQ12" s="189"/>
+      <c r="BR12" s="189"/>
+      <c r="BS12" s="189"/>
+      <c r="BT12" s="189"/>
+      <c r="BU12" s="188"/>
+    </row>
+    <row r="13" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="40"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="344"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="344"/>
+      <c r="M13" s="348">
+        <v>0</v>
+      </c>
+      <c r="N13" s="349" t="s">
+        <v>511</v>
+      </c>
+      <c r="O13" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="345">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="349" t="s">
+        <v>205</v>
+      </c>
+      <c r="S13" s="348">
+        <v>1</v>
+      </c>
+      <c r="T13" s="344"/>
+      <c r="U13" s="344"/>
+      <c r="V13" s="344"/>
+      <c r="W13" s="344"/>
+      <c r="X13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AG13" s="217" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ13" s="391" t="s">
+        <v>702</v>
+      </c>
+      <c r="AK13" s="402">
+        <v>27</v>
+      </c>
+      <c r="AL13" s="400" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM13" s="358"/>
+      <c r="AN13" s="408">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="358"/>
+      <c r="AP13" s="400" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ13" s="402">
+        <v>26</v>
+      </c>
+      <c r="AR13" s="391" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU13" s="217" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX13" s="188"/>
+      <c r="AY13" s="189">
+        <v>6</v>
+      </c>
+      <c r="AZ13" s="373" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA13" s="430"/>
+      <c r="BC13" s="373" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD13" s="400" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF13" s="205">
+        <v>9</v>
+      </c>
+      <c r="BG13" s="205">
+        <v>10</v>
+      </c>
+      <c r="BI13" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK13" s="189"/>
+      <c r="BL13" s="189"/>
+      <c r="BM13" s="189"/>
+      <c r="BN13" s="200" t="s">
+        <v>332</v>
+      </c>
+      <c r="BO13" s="189"/>
+      <c r="BP13" s="189"/>
+      <c r="BQ13" s="189"/>
+      <c r="BR13" s="189"/>
+      <c r="BS13" s="189"/>
+      <c r="BT13" s="189"/>
+      <c r="BU13" s="188"/>
+    </row>
+    <row r="14" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="40"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="344"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="344"/>
+      <c r="M14" s="348">
+        <v>2</v>
+      </c>
+      <c r="N14" s="351" t="s">
+        <v>210</v>
+      </c>
+      <c r="O14" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="345">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="351" t="s">
+        <v>519</v>
+      </c>
+      <c r="S14" s="348">
+        <v>3</v>
+      </c>
+      <c r="T14" s="344"/>
+      <c r="U14" s="344"/>
+      <c r="V14" s="344"/>
+      <c r="W14" s="344"/>
+      <c r="X14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="58">
+        <v>9.1</v>
+      </c>
+      <c r="AG14" s="217" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ14" s="391" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK14" s="402">
+        <v>25</v>
+      </c>
+      <c r="AL14" s="400" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM14" s="358"/>
+      <c r="AN14" s="408">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="358"/>
+      <c r="AP14" s="400" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ14" s="402">
+        <v>24</v>
+      </c>
+      <c r="AR14" s="391" t="s">
+        <v>696</v>
+      </c>
+      <c r="AU14" s="217" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX14" s="188"/>
+      <c r="AY14" s="189"/>
+      <c r="BC14" s="400" t="s">
+        <v>704</v>
+      </c>
+      <c r="BD14" s="417" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF14" s="205">
+        <v>11</v>
+      </c>
+      <c r="BG14" s="205">
+        <v>12</v>
+      </c>
+      <c r="BI14" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK14" s="189"/>
+      <c r="BL14" s="189"/>
+      <c r="BM14" s="189"/>
+      <c r="BN14" s="200" t="s">
+        <v>335</v>
+      </c>
+      <c r="BO14" s="189"/>
+      <c r="BP14" s="189"/>
+      <c r="BQ14" s="189"/>
+      <c r="BR14" s="189"/>
+      <c r="BS14" s="189"/>
+      <c r="BT14" s="189"/>
+      <c r="BU14" s="188"/>
+    </row>
+    <row r="15" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="58">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="344"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="344"/>
+      <c r="M15" s="348">
+        <v>4</v>
+      </c>
+      <c r="N15" s="351" t="s">
+        <v>512</v>
+      </c>
+      <c r="O15" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="345">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="352" t="s">
+        <v>399</v>
+      </c>
+      <c r="S15" s="348">
+        <v>5</v>
+      </c>
+      <c r="T15" s="344"/>
+      <c r="U15" s="344"/>
+      <c r="V15" s="344"/>
+      <c r="W15" s="344"/>
+      <c r="X15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AG15" s="217" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ15" s="391" t="s">
+        <v>700</v>
+      </c>
+      <c r="AK15" s="402">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="400" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM15" s="358"/>
+      <c r="AN15" s="408">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="358"/>
+      <c r="AP15" s="400" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ15" s="402">
+        <v>22</v>
+      </c>
+      <c r="AR15" s="391" t="s">
+        <v>697</v>
+      </c>
+      <c r="AU15" s="217" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX15" s="188"/>
+      <c r="AY15" s="189"/>
+      <c r="BC15" s="400" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD15" s="400" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF15" s="205">
+        <v>13</v>
+      </c>
+      <c r="BG15" s="205">
+        <v>14</v>
+      </c>
+      <c r="BI15" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK15" s="189"/>
+      <c r="BL15" s="189"/>
+      <c r="BM15" s="189"/>
+      <c r="BN15" s="200" t="s">
+        <v>337</v>
+      </c>
+      <c r="BO15" s="189"/>
+      <c r="BP15" s="189"/>
+      <c r="BQ15" s="189"/>
+      <c r="BR15" s="189"/>
+      <c r="BS15" s="189"/>
+      <c r="BT15" s="189"/>
+      <c r="BU15" s="188"/>
+    </row>
+    <row r="16" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="40"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="353" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="344"/>
+      <c r="M16" s="348">
+        <v>6</v>
+      </c>
+      <c r="N16" s="354" t="s">
+        <v>513</v>
+      </c>
+      <c r="O16" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="345">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="354" t="s">
+        <v>520</v>
+      </c>
+      <c r="S16" s="348">
+        <v>7</v>
+      </c>
+      <c r="T16" s="344"/>
+      <c r="U16" s="353" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="344"/>
+      <c r="W16" s="344"/>
+      <c r="X16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AG16" s="217" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ16" s="391" t="s">
+        <v>699</v>
+      </c>
+      <c r="AK16" s="402">
+        <v>50</v>
+      </c>
+      <c r="AL16" s="400" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM16" s="358"/>
+      <c r="AN16" s="408">
+        <v>8</v>
+      </c>
+      <c r="AO16" s="358"/>
+      <c r="AP16" s="400" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ16" s="402">
+        <v>49</v>
+      </c>
+      <c r="AR16" s="391" t="s">
+        <v>698</v>
+      </c>
+      <c r="AU16" s="217" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY16" s="189">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="373" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA16" s="430"/>
+      <c r="BC16" s="400" t="s">
+        <v>705</v>
+      </c>
+      <c r="BD16" s="400" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF16" s="205">
+        <v>15</v>
+      </c>
+      <c r="BG16" s="205">
+        <v>16</v>
+      </c>
+      <c r="BI16" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK16" s="189"/>
+      <c r="BL16" s="189"/>
+      <c r="BM16" s="189"/>
+      <c r="BN16" s="200" t="s">
+        <v>338</v>
+      </c>
+      <c r="BO16" s="189"/>
+      <c r="BP16" s="189"/>
+      <c r="BQ16" s="189"/>
+      <c r="BR16" s="189"/>
+      <c r="BS16" s="189"/>
+      <c r="BT16" s="189"/>
+      <c r="BU16" s="188"/>
+    </row>
+    <row r="17" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="40"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="319" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="156"/>
+      <c r="J17" s="356" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="357" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="344"/>
+      <c r="M17" s="348">
+        <v>8</v>
+      </c>
+      <c r="N17" s="354" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="345">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="354" t="s">
+        <v>521</v>
+      </c>
+      <c r="S17" s="348">
+        <v>9</v>
+      </c>
+      <c r="T17" s="344"/>
+      <c r="U17" s="353" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="356" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="358"/>
+      <c r="X17" s="156"/>
+      <c r="Z17" s="320" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="40"/>
+      <c r="AG17" s="217" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ17" s="391" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK17" s="402">
+        <v>65</v>
+      </c>
+      <c r="AL17" s="400" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM17" s="358"/>
+      <c r="AN17" s="408">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="358"/>
+      <c r="AP17" s="400" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ17" s="402">
+        <v>66</v>
+      </c>
+      <c r="AR17" s="391" t="s">
+        <v>490</v>
+      </c>
+      <c r="AU17" s="217" t="s">
+        <v>390</v>
+      </c>
+      <c r="AY17" s="188"/>
+      <c r="AZ17" s="188"/>
+      <c r="BA17" s="188"/>
+      <c r="BD17" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF17" s="205">
+        <v>17</v>
+      </c>
+      <c r="BG17" s="205">
+        <v>18</v>
+      </c>
+      <c r="BI17" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK17" s="189"/>
+      <c r="BL17" s="189"/>
+      <c r="BM17" s="189"/>
+      <c r="BN17" s="200" t="s">
+        <v>339</v>
+      </c>
+      <c r="BO17" s="189"/>
+      <c r="BP17" s="189"/>
+      <c r="BQ17" s="189"/>
+      <c r="BR17" s="189"/>
+      <c r="BS17" s="189"/>
+      <c r="BT17" s="189"/>
+      <c r="BU17" s="188"/>
+    </row>
+    <row r="18" spans="3:73" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="40"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="344"/>
+      <c r="K18" s="353" t="s">
+        <v>662</v>
+      </c>
+      <c r="L18" s="344"/>
+      <c r="M18" s="344"/>
+      <c r="N18" s="359" t="s">
+        <v>662</v>
+      </c>
+      <c r="O18" s="350"/>
+      <c r="P18" s="345">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="355"/>
+      <c r="R18" s="359" t="s">
+        <v>663</v>
+      </c>
+      <c r="S18" s="346"/>
+      <c r="T18" s="346"/>
+      <c r="U18" s="353" t="s">
+        <v>663</v>
+      </c>
+      <c r="V18" s="344"/>
+      <c r="W18" s="344"/>
+      <c r="X18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AG18" s="239" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ18" s="391" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK18" s="402">
+        <v>47</v>
+      </c>
+      <c r="AL18" s="400" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM18" s="358"/>
+      <c r="AN18" s="408">
+        <v>10</v>
+      </c>
+      <c r="AO18" s="358"/>
+      <c r="AP18" s="400" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ18" s="402">
+        <v>46</v>
+      </c>
+      <c r="AR18" s="391" t="s">
+        <v>487</v>
+      </c>
+      <c r="AU18" s="239" t="s">
+        <v>394</v>
+      </c>
+      <c r="AY18" s="188"/>
+      <c r="AZ18" s="188"/>
+      <c r="BA18" s="188"/>
+      <c r="BD18" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF18" s="211">
+        <v>19</v>
+      </c>
+      <c r="BG18" s="211">
+        <v>20</v>
+      </c>
+      <c r="BI18" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK18" s="189"/>
+      <c r="BL18" s="189"/>
+      <c r="BM18" s="189"/>
+      <c r="BN18" s="200" t="s">
+        <v>306</v>
+      </c>
+      <c r="BO18" s="189"/>
+      <c r="BP18" s="189"/>
+      <c r="BQ18" s="189"/>
+      <c r="BR18" s="189"/>
+      <c r="BS18" s="189"/>
+      <c r="BT18" s="189"/>
+      <c r="BU18" s="188"/>
+    </row>
+    <row r="19" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="58">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="360" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="353" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="344"/>
+      <c r="M19" s="348">
+        <v>10</v>
+      </c>
+      <c r="N19" s="361" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="345">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="361" t="s">
+        <v>522</v>
+      </c>
+      <c r="S19" s="348">
+        <v>11</v>
+      </c>
+      <c r="T19" s="344"/>
+      <c r="U19" s="353" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="360" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" s="344"/>
+      <c r="X19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG19" s="239" t="s">
+        <v>473</v>
+      </c>
+      <c r="AJ19" s="391" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK19" s="402">
+        <v>67</v>
+      </c>
+      <c r="AL19" s="400" t="s">
+        <v>477</v>
+      </c>
+      <c r="AM19" s="358"/>
+      <c r="AN19" s="408">
+        <v>11</v>
+      </c>
+      <c r="AO19" s="358"/>
+      <c r="AP19" s="400" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ19" s="402">
+        <v>44</v>
+      </c>
+      <c r="AR19" s="356" t="s">
+        <v>486</v>
+      </c>
+      <c r="AU19" s="239" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="362" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="353" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="344"/>
+      <c r="M20" s="348">
+        <v>12</v>
+      </c>
+      <c r="N20" s="361" t="s">
+        <v>514</v>
+      </c>
+      <c r="O20" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="345">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="361" t="s">
+        <v>523</v>
+      </c>
+      <c r="S20" s="348">
+        <v>13</v>
+      </c>
+      <c r="T20" s="344"/>
+      <c r="U20" s="353" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="362" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="344"/>
+      <c r="X20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG20" s="217" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ20" s="356" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK20" s="402">
+        <v>34</v>
+      </c>
+      <c r="AL20" s="400" t="s">
+        <v>475</v>
+      </c>
+      <c r="AM20" s="358"/>
+      <c r="AN20" s="408">
+        <v>12</v>
+      </c>
+      <c r="AO20" s="358"/>
+      <c r="AP20" s="400" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ20" s="402">
+        <v>33</v>
+      </c>
+      <c r="AR20" s="356" t="s">
+        <v>485</v>
+      </c>
+      <c r="AU20" s="217" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="3:73" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="40"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="319" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="156"/>
+      <c r="J21" s="363" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="353" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="344"/>
+      <c r="M21" s="348">
+        <v>14</v>
+      </c>
+      <c r="N21" s="361" t="s">
+        <v>515</v>
+      </c>
+      <c r="O21" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="345">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="361" t="s">
+        <v>524</v>
+      </c>
+      <c r="S21" s="348">
+        <v>15</v>
+      </c>
+      <c r="U21" s="353" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" s="363" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" s="358"/>
+      <c r="X21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="79">
+        <v>2.1</v>
+      </c>
+      <c r="AG21" s="217" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ21" s="356" t="s">
+        <v>694</v>
+      </c>
+      <c r="AK21" s="402">
+        <v>73</v>
+      </c>
+      <c r="AL21" s="400" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM21" s="358"/>
+      <c r="AN21" s="408">
+        <v>13</v>
+      </c>
+      <c r="AO21" s="358"/>
+      <c r="AP21" s="400" t="s">
+        <v>348</v>
+      </c>
+      <c r="AQ21" s="402">
+        <v>35</v>
+      </c>
+      <c r="AR21" s="356" t="s">
+        <v>693</v>
+      </c>
+      <c r="AU21" s="217" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="J22" s="356" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="357" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="364" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="348">
+        <v>16</v>
+      </c>
+      <c r="N22" s="361" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="345">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="361" t="s">
+        <v>191</v>
+      </c>
+      <c r="S22" s="348">
+        <v>17</v>
+      </c>
+      <c r="T22" s="364" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" s="365" t="s">
+        <v>67</v>
+      </c>
+      <c r="V22" s="363" t="s">
+        <v>68</v>
+      </c>
+      <c r="W22" s="358"/>
+      <c r="X22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG22" s="217" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ22" s="391" t="s">
+        <v>482</v>
+      </c>
+      <c r="AK22" s="402">
+        <v>19</v>
+      </c>
+      <c r="AL22" s="400" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM22" s="358"/>
+      <c r="AN22" s="408">
+        <v>14</v>
+      </c>
+      <c r="AO22" s="358"/>
+      <c r="AP22" s="404" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ22" s="402">
+        <v>21</v>
+      </c>
+      <c r="AR22" s="391" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU22" s="217" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="37"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="341"/>
+      <c r="K23" s="353" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="344"/>
+      <c r="M23" s="348">
+        <v>18</v>
+      </c>
+      <c r="N23" s="354" t="s">
+        <v>516</v>
+      </c>
+      <c r="O23" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="345">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="354" t="s">
+        <v>478</v>
+      </c>
+      <c r="S23" s="348">
+        <v>19</v>
+      </c>
+      <c r="T23" s="344"/>
+      <c r="U23" s="353" t="s">
+        <v>70</v>
+      </c>
+      <c r="V23" s="341"/>
+      <c r="W23" s="341"/>
+      <c r="X23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="37"/>
+      <c r="AG23" s="217" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ23" s="189" t="s">
+        <v>483</v>
+      </c>
+      <c r="AK23" s="358"/>
+      <c r="AL23" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM23" s="358"/>
+      <c r="AN23" s="408">
+        <v>15</v>
+      </c>
+      <c r="AO23" s="358"/>
+      <c r="AP23" s="403" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ23" s="189"/>
+      <c r="AR23" s="358"/>
+      <c r="AU23" s="217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="260" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="341"/>
+      <c r="K24" s="357" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="366" t="s">
+        <v>347</v>
+      </c>
+      <c r="M24" s="348">
+        <v>20</v>
+      </c>
+      <c r="N24" s="367" t="s">
+        <v>396</v>
+      </c>
+      <c r="O24" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="345">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="355" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="367" t="s">
+        <v>402</v>
+      </c>
+      <c r="S24" s="348">
+        <v>21</v>
+      </c>
+      <c r="T24" s="344"/>
+      <c r="U24" s="353" t="s">
+        <v>75</v>
+      </c>
+      <c r="V24" s="341"/>
+      <c r="W24" s="341"/>
+      <c r="X24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" s="217" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ24" s="358"/>
+      <c r="AK24" s="358"/>
+      <c r="AL24" s="394" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM24" s="358"/>
+      <c r="AN24" s="408">
+        <v>16</v>
+      </c>
+      <c r="AO24" s="358"/>
+      <c r="AP24" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="189"/>
+      <c r="AR24" s="358"/>
+      <c r="AU24" s="217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="341"/>
+      <c r="K25" s="341"/>
+      <c r="L25" s="344"/>
+      <c r="M25" s="348">
+        <v>22</v>
+      </c>
+      <c r="N25" s="351" t="s">
+        <v>383</v>
+      </c>
+      <c r="O25" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="345">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="351" t="s">
+        <v>380</v>
+      </c>
+      <c r="S25" s="348">
+        <v>23</v>
+      </c>
+      <c r="T25" s="344"/>
+      <c r="U25" s="341"/>
+      <c r="V25" s="341"/>
+      <c r="W25" s="341"/>
+      <c r="X25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ25" s="358"/>
+      <c r="AK25" s="358"/>
+      <c r="AL25" s="358"/>
+      <c r="AM25" s="358"/>
+      <c r="AN25" s="358"/>
+      <c r="AO25" s="358"/>
+      <c r="AP25" s="358"/>
+      <c r="AQ25" s="358"/>
+      <c r="AR25" s="358"/>
+    </row>
+    <row r="26" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="341"/>
+      <c r="K26" s="341"/>
+      <c r="L26" s="344"/>
+      <c r="M26" s="348">
+        <v>24</v>
+      </c>
+      <c r="N26" s="351" t="s">
+        <v>379</v>
+      </c>
+      <c r="O26" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="345">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="351" t="s">
+        <v>376</v>
+      </c>
+      <c r="S26" s="348">
+        <v>25</v>
+      </c>
+      <c r="T26" s="344"/>
+      <c r="U26" s="341"/>
+      <c r="V26" s="341"/>
+      <c r="W26" s="341"/>
+      <c r="X26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ26" s="358"/>
+      <c r="AK26" s="358"/>
+      <c r="AL26" s="358"/>
+      <c r="AM26" s="358"/>
+      <c r="AN26" s="358"/>
+      <c r="AO26" s="358"/>
+      <c r="AP26" s="358"/>
+      <c r="AQ26" s="358"/>
+      <c r="AR26" s="358"/>
+    </row>
+    <row r="27" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="341"/>
+      <c r="K27" s="341"/>
+      <c r="L27" s="344"/>
+      <c r="M27" s="348">
+        <v>26</v>
+      </c>
+      <c r="N27" s="351" t="s">
+        <v>375</v>
+      </c>
+      <c r="O27" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="345">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="351" t="s">
+        <v>372</v>
+      </c>
+      <c r="S27" s="348">
+        <v>27</v>
+      </c>
+      <c r="T27" s="344"/>
+      <c r="U27" s="341"/>
+      <c r="V27" s="341"/>
+      <c r="W27" s="341"/>
+      <c r="X27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ27" s="358"/>
+      <c r="AK27" s="358"/>
+      <c r="AL27" s="358"/>
+      <c r="AM27" s="358"/>
+      <c r="AN27" s="358"/>
+      <c r="AO27" s="358"/>
+      <c r="AP27" s="358"/>
+      <c r="AQ27" s="358"/>
+      <c r="AR27" s="358"/>
+    </row>
+    <row r="28" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="58">
+        <v>1.3</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="341"/>
+      <c r="K28" s="341"/>
+      <c r="L28" s="344"/>
+      <c r="M28" s="348">
+        <v>28</v>
+      </c>
+      <c r="N28" s="351" t="s">
+        <v>371</v>
+      </c>
+      <c r="O28" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="345">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="351" t="s">
+        <v>368</v>
+      </c>
+      <c r="S28" s="348">
+        <v>29</v>
+      </c>
+      <c r="T28" s="344"/>
+      <c r="U28" s="341"/>
+      <c r="V28" s="341"/>
+      <c r="W28" s="341"/>
+      <c r="X28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="AV28" s="415" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX28" s="441" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="341"/>
+      <c r="K29" s="341"/>
+      <c r="L29" s="344"/>
+      <c r="M29" s="348">
+        <v>30</v>
+      </c>
+      <c r="N29" s="351" t="s">
+        <v>367</v>
+      </c>
+      <c r="O29" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="345">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="368" t="s">
+        <v>518</v>
+      </c>
+      <c r="S29" s="348">
+        <v>31</v>
+      </c>
+      <c r="T29" s="344"/>
+      <c r="U29" s="369" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" s="363" t="s">
+        <v>91</v>
+      </c>
+      <c r="W29" s="370" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z29" s="320" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AV29" s="416" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX29" s="442"/>
+      <c r="AY29" s="188"/>
+      <c r="AZ29" s="188"/>
+      <c r="BA29" s="188"/>
+      <c r="BD29" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF29" s="211">
+        <v>19</v>
+      </c>
+      <c r="BG29" s="211">
+        <v>20</v>
+      </c>
+      <c r="BI29" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK29" s="189"/>
+    </row>
+    <row r="30" spans="3:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="79">
+        <v>2.4</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="36"/>
+      <c r="J30" s="370" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="341"/>
+      <c r="L30" s="362" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="348">
+        <v>32</v>
+      </c>
+      <c r="N30" s="368" t="s">
+        <v>517</v>
+      </c>
+      <c r="O30" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="345">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="368" t="s">
+        <v>474</v>
+      </c>
+      <c r="S30" s="348">
+        <v>33</v>
+      </c>
+      <c r="T30" s="344"/>
+      <c r="U30" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="V30" s="356" t="s">
+        <v>98</v>
+      </c>
+      <c r="W30" s="371" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z30" s="320" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV30" s="379" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX30" s="442"/>
+      <c r="AY30" s="188"/>
+      <c r="AZ30" s="188"/>
+      <c r="BA30" s="188"/>
+      <c r="BD30" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF30" s="205">
+        <v>17</v>
+      </c>
+      <c r="BG30" s="205">
+        <v>18</v>
+      </c>
+      <c r="BI30" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK30" s="189"/>
+    </row>
+    <row r="31" spans="3:73" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>610</v>
+      </c>
+      <c r="E31" s="89"/>
+      <c r="F31" s="319" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="341"/>
+      <c r="K31" s="356" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="362" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="348">
+        <v>34</v>
+      </c>
+      <c r="N31" s="368" t="s">
+        <v>475</v>
+      </c>
+      <c r="O31" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="345">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="350" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="368" t="s">
+        <v>348</v>
+      </c>
+      <c r="S31" s="348">
+        <v>35</v>
+      </c>
+      <c r="T31" s="364" t="s">
+        <v>676</v>
+      </c>
+      <c r="U31" s="369" t="s">
+        <v>104</v>
+      </c>
+      <c r="V31" s="363" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="341"/>
+      <c r="Z31" s="321" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV31" s="379" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX31" s="443"/>
+      <c r="AY31" s="189">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="373" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA31" s="430"/>
+      <c r="BC31" s="400" t="s">
+        <v>705</v>
+      </c>
+      <c r="BD31" s="400" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF31" s="205">
+        <v>15</v>
+      </c>
+      <c r="BG31" s="205">
+        <v>16</v>
+      </c>
+      <c r="BI31" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK31" s="189"/>
+    </row>
+    <row r="32" spans="3:73" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="364" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY32" s="189"/>
+      <c r="BC32" s="400" t="s">
+        <v>333</v>
+      </c>
+      <c r="BD32" s="400" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF32" s="205">
+        <v>13</v>
+      </c>
+      <c r="BG32" s="205">
+        <v>14</v>
+      </c>
+      <c r="BI32" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK32" s="189"/>
+    </row>
+    <row r="33" spans="3:67" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="364" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV33" s="379"/>
+      <c r="AY33" s="189"/>
+      <c r="BC33" s="400" t="s">
+        <v>704</v>
+      </c>
+      <c r="BD33" s="417" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF33" s="205">
+        <v>11</v>
+      </c>
+      <c r="BG33" s="205">
+        <v>12</v>
+      </c>
+      <c r="BI33" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK33" s="189"/>
+    </row>
+    <row r="34" spans="3:67" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="258"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="338" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="314"/>
+      <c r="M34" s="315"/>
+      <c r="N34" s="314"/>
+      <c r="O34" s="314"/>
+      <c r="P34" s="314"/>
+      <c r="Q34" s="314"/>
+      <c r="R34" s="314"/>
+      <c r="S34" s="315"/>
+      <c r="T34" s="314"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="258"/>
+      <c r="AY34" s="189">
+        <v>6</v>
+      </c>
+      <c r="AZ34" s="373" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA34" s="430"/>
+      <c r="BC34" s="373" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD34" s="400" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF34" s="205">
+        <v>9</v>
+      </c>
+      <c r="BG34" s="205">
+        <v>10</v>
+      </c>
+      <c r="BI34" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK34" s="189"/>
+    </row>
+    <row r="35" spans="3:67" ht="65.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="110" t="str">
+        <f>D7</f>
+        <v>Special + USB</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="322" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="323" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="324" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="325" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="326" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="327" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" s="328" t="str">
+        <f>M7</f>
+        <v>Arduino Pin</v>
+      </c>
+      <c r="N35" s="329" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="329" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="330" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="329" t="str">
+        <f>O35</f>
+        <v>5v Tolerant</v>
+      </c>
+      <c r="R35" s="329" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" s="331" t="str">
+        <f>M35</f>
+        <v>Arduino Pin</v>
+      </c>
+      <c r="T35" s="327" t="s">
+        <v>106</v>
+      </c>
+      <c r="U35" s="326" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="325" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" s="324" t="s">
+        <v>5</v>
+      </c>
+      <c r="X35" s="323" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="322" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="332" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="110" t="str">
+        <f>D35</f>
+        <v>Special + USB</v>
+      </c>
+      <c r="AC35" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY35" s="189">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="373" t="s">
+        <v>323</v>
+      </c>
+      <c r="BA35" s="430"/>
+      <c r="BC35" s="373" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD35" s="400" t="s">
+        <v>325</v>
+      </c>
+      <c r="BF35" s="205">
+        <v>7</v>
+      </c>
+      <c r="BG35" s="205">
+        <v>8</v>
+      </c>
+      <c r="BI35" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK35" s="189"/>
+      <c r="BL35" s="189"/>
+      <c r="BM35" s="189"/>
+    </row>
+    <row r="36" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="36"/>
+      <c r="H36" s="341"/>
+      <c r="I36" s="341"/>
+      <c r="J36" s="341"/>
+      <c r="K36" s="342"/>
+      <c r="L36" s="342"/>
+      <c r="M36" s="342"/>
+      <c r="N36" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="156"/>
+      <c r="P36" s="317">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="156"/>
+      <c r="R36" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="S36" s="342"/>
+      <c r="T36" s="342"/>
+      <c r="U36" s="342"/>
+      <c r="V36" s="342"/>
+      <c r="W36" s="341"/>
+      <c r="X36" s="341"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="28"/>
+      <c r="AY36" s="411"/>
+      <c r="BC36" s="400" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD36" s="400" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF36" s="205">
+        <v>5</v>
+      </c>
+      <c r="BG36" s="205">
+        <v>6</v>
+      </c>
+      <c r="BI36" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK36" s="189"/>
+      <c r="BL36" s="189"/>
+      <c r="BM36" s="189"/>
+    </row>
+    <row r="37" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="38"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="H37" s="341"/>
+      <c r="I37" s="341"/>
+      <c r="J37" s="341"/>
+      <c r="K37" s="342"/>
+      <c r="L37" s="342"/>
+      <c r="M37" s="342"/>
+      <c r="N37" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="156"/>
+      <c r="P37" s="317">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="342"/>
+      <c r="T37" s="342"/>
+      <c r="U37" s="342"/>
+      <c r="V37" s="342"/>
+      <c r="W37" s="341"/>
+      <c r="X37" s="341"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="38"/>
+      <c r="AY37" s="411"/>
+      <c r="BC37" s="400" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD37" s="400" t="s">
+        <v>315</v>
+      </c>
+      <c r="BF37" s="205">
+        <v>3</v>
+      </c>
+      <c r="BG37" s="205">
+        <v>4</v>
+      </c>
+      <c r="BI37" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK37" s="416" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL37" s="189">
+        <v>3</v>
+      </c>
+      <c r="BM37" s="189"/>
+    </row>
+    <row r="38" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="38"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="156"/>
+      <c r="H38" s="344"/>
+      <c r="I38" s="344"/>
+      <c r="J38" s="344"/>
+      <c r="K38" s="342"/>
+      <c r="L38" s="373" t="s">
+        <v>677</v>
+      </c>
+      <c r="M38" s="342"/>
+      <c r="N38" s="372" t="s">
+        <v>107</v>
+      </c>
+      <c r="O38" s="316"/>
+      <c r="P38" s="317">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="372" t="s">
+        <v>108</v>
+      </c>
+      <c r="S38" s="372"/>
+      <c r="T38" s="373" t="s">
+        <v>678</v>
+      </c>
+      <c r="U38" s="342"/>
+      <c r="V38" s="374" t="s">
+        <v>109</v>
+      </c>
+      <c r="W38" s="341"/>
+      <c r="X38" s="341"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="38"/>
+      <c r="AY38" s="411"/>
+      <c r="BD38" s="394" t="s">
+        <v>310</v>
+      </c>
+      <c r="BF38" s="205">
+        <v>1</v>
+      </c>
+      <c r="BG38" s="205">
+        <v>2</v>
+      </c>
+      <c r="BI38" s="394" t="s">
+        <v>703</v>
+      </c>
+      <c r="BK38" s="415" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL38" s="409">
+        <v>7</v>
+      </c>
+      <c r="BM38" s="409"/>
+    </row>
+    <row r="39" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="38"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="156"/>
+      <c r="H39" s="344"/>
+      <c r="I39" s="344"/>
+      <c r="J39" s="344"/>
+      <c r="K39" s="342"/>
+      <c r="L39" s="342"/>
+      <c r="M39" s="342"/>
+      <c r="N39" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" s="316"/>
+      <c r="P39" s="317">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="S39" s="342"/>
+      <c r="T39" s="342"/>
+      <c r="U39" s="342"/>
+      <c r="V39" s="342"/>
+      <c r="W39" s="341"/>
+      <c r="X39" s="341"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="38"/>
+      <c r="AY39" s="412" t="s">
+        <v>706</v>
+      </c>
+      <c r="AZ39" s="413"/>
+      <c r="BA39" s="428"/>
+      <c r="BK39" s="412" t="str">
+        <f>AY39</f>
+        <v>STLINK V2</v>
+      </c>
+      <c r="BL39" s="413"/>
+      <c r="BM39" s="428"/>
+    </row>
+    <row r="40" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="42"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="156"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="346"/>
+      <c r="L40" s="346"/>
+      <c r="M40" s="346"/>
+      <c r="N40" s="347" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="156"/>
+      <c r="P40" s="317">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="347" t="s">
+        <v>19</v>
+      </c>
+      <c r="S40" s="346"/>
+      <c r="T40" s="346"/>
+      <c r="U40" s="346"/>
+      <c r="V40" s="346"/>
+      <c r="W40" s="344"/>
+      <c r="X40" s="344"/>
+      <c r="Z40" s="156"/>
+      <c r="AA40" s="156"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="42"/>
+    </row>
+    <row r="41" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="156"/>
+      <c r="H41" s="344"/>
+      <c r="I41" s="344"/>
+      <c r="J41" s="344"/>
+      <c r="K41" s="344"/>
+      <c r="L41" s="344"/>
+      <c r="M41" s="348">
+        <v>36</v>
+      </c>
+      <c r="N41" s="349" t="s">
+        <v>536</v>
+      </c>
+      <c r="O41" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="317">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="349" t="s">
+        <v>525</v>
+      </c>
+      <c r="S41" s="348">
+        <v>37</v>
+      </c>
+      <c r="T41" s="344"/>
+      <c r="U41" s="344"/>
+      <c r="V41" s="344"/>
+      <c r="W41" s="344"/>
+      <c r="X41" s="344"/>
+      <c r="Z41" s="156"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG41" s="418"/>
+    </row>
+    <row r="42" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="58">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="156"/>
+      <c r="H42" s="370" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="363" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="344"/>
+      <c r="K42" s="344"/>
+      <c r="L42" s="344"/>
+      <c r="M42" s="348">
+        <v>38</v>
+      </c>
+      <c r="N42" s="368" t="s">
+        <v>537</v>
+      </c>
+      <c r="O42" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="317">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="368" t="s">
+        <v>526</v>
+      </c>
+      <c r="S42" s="348">
+        <v>39</v>
+      </c>
+      <c r="T42" s="344"/>
+      <c r="U42" s="344"/>
+      <c r="V42" s="344"/>
+      <c r="W42" s="344"/>
+      <c r="X42" s="370" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z42" s="156"/>
+      <c r="AA42" s="333"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY42" s="438" t="s">
+        <v>706</v>
+      </c>
+      <c r="AZ42" s="439"/>
+      <c r="BA42" s="440"/>
+      <c r="BG42" s="418"/>
+      <c r="BM42" s="438" t="s">
+        <v>706</v>
+      </c>
+      <c r="BN42" s="439"/>
+      <c r="BO42" s="440"/>
+    </row>
+    <row r="43" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="156"/>
+      <c r="H43" s="371" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="344"/>
+      <c r="J43" s="375" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="344"/>
+      <c r="L43" s="344"/>
+      <c r="M43" s="348">
+        <v>40</v>
+      </c>
+      <c r="N43" s="368" t="s">
+        <v>538</v>
+      </c>
+      <c r="O43" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="317">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="368" t="s">
+        <v>527</v>
+      </c>
+      <c r="S43" s="348">
+        <v>41</v>
+      </c>
+      <c r="T43" s="344"/>
+      <c r="U43" s="344"/>
+      <c r="V43" s="375" t="s">
+        <v>119</v>
+      </c>
+      <c r="W43" s="344"/>
+      <c r="X43" s="371" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z43" s="156"/>
+      <c r="AA43" s="156"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AY43" s="419"/>
+      <c r="AZ43" s="431"/>
+      <c r="BA43" s="420"/>
+      <c r="BC43" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF43" s="211">
+        <v>20</v>
+      </c>
+      <c r="BG43" s="211">
+        <v>19</v>
+      </c>
+      <c r="BI43" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM43" s="419"/>
+      <c r="BN43" s="429"/>
+      <c r="BO43" s="425"/>
+    </row>
+    <row r="44" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="40"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="334" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="384" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="385" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="356" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="344"/>
+      <c r="L44" s="344"/>
+      <c r="M44" s="348">
+        <v>42</v>
+      </c>
+      <c r="N44" s="368" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="317">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="368" t="s">
+        <v>334</v>
+      </c>
+      <c r="S44" s="348">
+        <v>43</v>
+      </c>
+      <c r="T44" s="376" t="s">
+        <v>123</v>
+      </c>
+      <c r="U44" s="344"/>
+      <c r="V44" s="344"/>
+      <c r="W44" s="356" t="s">
+        <v>60</v>
+      </c>
+      <c r="X44" s="377" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z44" s="335" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA44" s="156"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="79">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY44" s="419"/>
+      <c r="AZ44" s="431"/>
+      <c r="BA44" s="420"/>
+      <c r="BC44" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF44" s="205">
+        <v>18</v>
+      </c>
+      <c r="BG44" s="205">
+        <v>17</v>
+      </c>
+      <c r="BI44" s="409" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM44" s="419"/>
+      <c r="BN44" s="429"/>
+      <c r="BO44" s="425"/>
+    </row>
+    <row r="45" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="40"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="156"/>
+      <c r="H45" s="344"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="362" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="344"/>
+      <c r="L45" s="344"/>
+      <c r="M45" s="348">
+        <v>44</v>
+      </c>
+      <c r="N45" s="378" t="s">
+        <v>476</v>
+      </c>
+      <c r="O45" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="317">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="378" t="s">
+        <v>528</v>
+      </c>
+      <c r="S45" s="348">
+        <v>45</v>
+      </c>
+      <c r="T45" s="344"/>
+      <c r="U45" s="344"/>
+      <c r="V45" s="379" t="s">
+        <v>53</v>
+      </c>
+      <c r="W45" s="344"/>
+      <c r="X45" s="344"/>
+      <c r="Z45" s="156"/>
+      <c r="AA45" s="156"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AY45" s="419"/>
+      <c r="AZ45" s="431"/>
+      <c r="BA45" s="420"/>
+      <c r="BC45" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF45" s="205">
+        <v>16</v>
+      </c>
+      <c r="BG45" s="205">
+        <v>15</v>
+      </c>
+      <c r="BI45" s="400" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK45" s="400" t="s">
+        <v>705</v>
+      </c>
+      <c r="BM45" s="419"/>
+      <c r="BN45" s="433" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO45" s="426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="40"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="156"/>
+      <c r="H46" s="344"/>
+      <c r="I46" s="344"/>
+      <c r="J46" s="379" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="344"/>
+      <c r="L46" s="344"/>
+      <c r="M46" s="348">
+        <v>46</v>
+      </c>
+      <c r="N46" s="378" t="s">
+        <v>395</v>
+      </c>
+      <c r="O46" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="317">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="378" t="s">
+        <v>392</v>
+      </c>
+      <c r="S46" s="348">
+        <v>47</v>
+      </c>
+      <c r="T46" s="344"/>
+      <c r="U46" s="344"/>
+      <c r="V46" s="362" t="s">
+        <v>128</v>
+      </c>
+      <c r="W46" s="344"/>
+      <c r="X46" s="344"/>
+      <c r="Z46" s="156"/>
+      <c r="AA46" s="156"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AY46" s="419"/>
+      <c r="AZ46" s="431"/>
+      <c r="BA46" s="420"/>
+      <c r="BC46" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF46" s="205">
+        <v>14</v>
+      </c>
+      <c r="BG46" s="205">
+        <v>13</v>
+      </c>
+      <c r="BI46" s="400" t="s">
+        <v>334</v>
+      </c>
+      <c r="BK46" s="400" t="s">
+        <v>333</v>
+      </c>
+      <c r="BM46" s="419"/>
+      <c r="BN46" s="431"/>
+      <c r="BO46" s="426"/>
+    </row>
+    <row r="47" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="40"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="156"/>
+      <c r="H47" s="344"/>
+      <c r="I47" s="344"/>
+      <c r="J47" s="360" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="344"/>
+      <c r="L47" s="344"/>
+      <c r="M47" s="348">
+        <v>48</v>
+      </c>
+      <c r="N47" s="378" t="s">
+        <v>539</v>
+      </c>
+      <c r="O47" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="317">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="378" t="s">
+        <v>387</v>
+      </c>
+      <c r="S47" s="348">
+        <v>49</v>
+      </c>
+      <c r="T47" s="373" t="s">
+        <v>670</v>
+      </c>
+      <c r="U47" s="344"/>
+      <c r="V47" s="362" t="s">
+        <v>134</v>
+      </c>
+      <c r="W47" s="344"/>
+      <c r="X47" s="344"/>
+      <c r="Z47" s="156"/>
+      <c r="AA47" s="156"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY47" s="419"/>
+      <c r="AZ47" s="431"/>
+      <c r="BA47" s="420"/>
+      <c r="BC47" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF47" s="205">
+        <v>12</v>
+      </c>
+      <c r="BG47" s="205">
+        <v>11</v>
+      </c>
+      <c r="BI47" s="417" t="s">
+        <v>406</v>
+      </c>
+      <c r="BK47" s="400" t="s">
+        <v>704</v>
+      </c>
+      <c r="BM47" s="419"/>
+      <c r="BN47" s="431"/>
+      <c r="BO47" s="426"/>
+    </row>
+    <row r="48" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="40"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="156"/>
+      <c r="H48" s="344"/>
+      <c r="I48" s="344"/>
+      <c r="J48" s="344"/>
+      <c r="K48" s="344"/>
+      <c r="L48" s="344"/>
+      <c r="M48" s="348">
+        <v>50</v>
+      </c>
+      <c r="N48" s="378" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="317">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="378" t="s">
+        <v>529</v>
+      </c>
+      <c r="S48" s="348">
+        <v>51</v>
+      </c>
+      <c r="T48" s="344"/>
+      <c r="U48" s="344"/>
+      <c r="V48" s="344"/>
+      <c r="W48" s="344"/>
+      <c r="X48" s="344"/>
+      <c r="Z48" s="156"/>
+      <c r="AA48" s="156"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AY48" s="419"/>
+      <c r="AZ48" s="431"/>
+      <c r="BA48" s="420"/>
+      <c r="BC48" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF48" s="205">
+        <v>10</v>
+      </c>
+      <c r="BG48" s="205">
+        <v>9</v>
+      </c>
+      <c r="BI48" s="400" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK48" s="373" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM48" s="419"/>
+      <c r="BN48" s="433" t="s">
+        <v>327</v>
+      </c>
+      <c r="BO48" s="426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="40"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="156"/>
+      <c r="H49" s="371" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="363" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="362" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="344"/>
+      <c r="L49" s="373" t="s">
+        <v>665</v>
+      </c>
+      <c r="M49" s="348">
+        <v>52</v>
+      </c>
+      <c r="N49" s="352" t="s">
+        <v>540</v>
+      </c>
+      <c r="O49" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="317">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="352" t="s">
+        <v>530</v>
+      </c>
+      <c r="S49" s="348">
+        <v>53</v>
+      </c>
+      <c r="T49" s="373" t="s">
+        <v>669</v>
+      </c>
+      <c r="U49" s="344"/>
+      <c r="V49" s="362" t="s">
+        <v>141</v>
+      </c>
+      <c r="W49" s="363" t="s">
+        <v>142</v>
+      </c>
+      <c r="X49" s="344"/>
+      <c r="Z49" s="336" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA49" s="156"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AY49" s="421"/>
+      <c r="AZ49" s="431"/>
+      <c r="BA49" s="420"/>
+      <c r="BC49" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF49" s="205">
+        <v>8</v>
+      </c>
+      <c r="BG49" s="205">
+        <v>7</v>
+      </c>
+      <c r="BI49" s="400" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK49" s="373" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM49" s="419"/>
+      <c r="BN49" s="433" t="s">
+        <v>323</v>
+      </c>
+      <c r="BO49" s="426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="40"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="156"/>
+      <c r="H50" s="344"/>
+      <c r="I50" s="363" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" s="362" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="344"/>
+      <c r="L50" s="373" t="s">
+        <v>666</v>
+      </c>
+      <c r="M50" s="348">
+        <v>54</v>
+      </c>
+      <c r="N50" s="352" t="s">
+        <v>541</v>
+      </c>
+      <c r="O50" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="317">
+        <v>15</v>
+      </c>
+      <c r="Q50" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="380" t="s">
+        <v>320</v>
+      </c>
+      <c r="S50" s="348">
+        <v>55</v>
+      </c>
+      <c r="T50" s="376" t="s">
+        <v>147</v>
+      </c>
+      <c r="U50" s="344"/>
+      <c r="V50" s="344"/>
+      <c r="W50" s="363" t="s">
+        <v>56</v>
+      </c>
+      <c r="X50" s="381" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z50" s="156"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY50" s="421"/>
+      <c r="AZ50" s="431"/>
+      <c r="BA50" s="420"/>
+      <c r="BC50" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF50" s="205">
+        <v>6</v>
+      </c>
+      <c r="BG50" s="205">
+        <v>5</v>
+      </c>
+      <c r="BI50" s="400" t="s">
+        <v>320</v>
+      </c>
+      <c r="BK50" s="400" t="s">
+        <v>319</v>
+      </c>
+      <c r="BM50" s="419"/>
+      <c r="BN50" s="431"/>
+      <c r="BO50" s="427"/>
+    </row>
+    <row r="51" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="37"/>
+      <c r="D51" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="156"/>
+      <c r="H51" s="341"/>
+      <c r="I51" s="341"/>
+      <c r="J51" s="362" t="s">
+        <v>151</v>
+      </c>
+      <c r="K51" s="341"/>
+      <c r="L51" s="386" t="s">
+        <v>671</v>
+      </c>
+      <c r="M51" s="348">
+        <v>56</v>
+      </c>
+      <c r="N51" s="380" t="s">
+        <v>542</v>
+      </c>
+      <c r="O51" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="317">
+        <v>16</v>
+      </c>
+      <c r="Q51" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="380" t="s">
+        <v>531</v>
+      </c>
+      <c r="S51" s="348">
+        <v>57</v>
+      </c>
+      <c r="T51" s="344"/>
+      <c r="U51" s="341"/>
+      <c r="V51" s="362" t="s">
+        <v>153</v>
+      </c>
+      <c r="W51" s="341"/>
+      <c r="X51" s="341"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="134" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC51" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="AY51" s="421">
+        <v>3</v>
+      </c>
+      <c r="AZ51" s="434" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA51" s="435"/>
+      <c r="BC51" s="343" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF51" s="205">
+        <v>4</v>
+      </c>
+      <c r="BG51" s="205">
+        <v>3</v>
+      </c>
+      <c r="BI51" s="400" t="s">
+        <v>315</v>
+      </c>
+      <c r="BK51" s="400" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM51" s="419"/>
+      <c r="BN51" s="431"/>
+      <c r="BO51" s="420"/>
+    </row>
+    <row r="52" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="D52" s="135"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="36"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="379" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="344"/>
+      <c r="L52" s="344"/>
+      <c r="M52" s="348">
+        <v>58</v>
+      </c>
+      <c r="N52" s="380" t="s">
+        <v>543</v>
+      </c>
+      <c r="O52" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="317">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="380" t="s">
+        <v>532</v>
+      </c>
+      <c r="S52" s="348">
+        <v>59</v>
+      </c>
+      <c r="T52" s="382" t="s">
+        <v>664</v>
+      </c>
+      <c r="U52" s="341"/>
+      <c r="V52" s="379" t="s">
+        <v>119</v>
+      </c>
+      <c r="W52" s="341"/>
+      <c r="X52" s="371" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="36"/>
+      <c r="AB52" s="288" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC52" s="79">
+        <v>1.2</v>
+      </c>
+      <c r="AY52" s="422">
+        <v>7</v>
+      </c>
+      <c r="AZ52" s="437" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA52" s="436"/>
+      <c r="BC52" s="394" t="s">
+        <v>703</v>
+      </c>
+      <c r="BF52" s="205">
+        <v>2</v>
+      </c>
+      <c r="BG52" s="205">
+        <v>1</v>
+      </c>
+      <c r="BI52" s="394" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM52" s="419"/>
+      <c r="BN52" s="431"/>
+      <c r="BO52" s="420"/>
+    </row>
+    <row r="53" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D53" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="36"/>
+      <c r="H53" s="371" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53" s="341"/>
+      <c r="J53" s="360" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53" s="344"/>
+      <c r="L53" s="344"/>
+      <c r="M53" s="348">
+        <v>60</v>
+      </c>
+      <c r="N53" s="380" t="s">
+        <v>544</v>
+      </c>
+      <c r="O53" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="317">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="352" t="s">
+        <v>533</v>
+      </c>
+      <c r="S53" s="348">
+        <v>61</v>
+      </c>
+      <c r="T53" s="373" t="s">
+        <v>668</v>
+      </c>
+      <c r="U53" s="341"/>
+      <c r="V53" s="341"/>
+      <c r="W53" s="341"/>
+      <c r="X53" s="371" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z53" s="319"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="79">
+        <v>3.4</v>
+      </c>
+      <c r="AY53" s="423"/>
+      <c r="AZ53" s="432"/>
+      <c r="BA53" s="424"/>
+      <c r="BM53" s="423"/>
+      <c r="BN53" s="432"/>
+      <c r="BO53" s="424"/>
+    </row>
+    <row r="54" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="79">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="36"/>
+      <c r="H54" s="341"/>
+      <c r="I54" s="341"/>
+      <c r="J54" s="360" t="s">
+        <v>164</v>
+      </c>
+      <c r="K54" s="344"/>
+      <c r="L54" s="373" t="s">
+        <v>667</v>
+      </c>
+      <c r="M54" s="348">
+        <v>62</v>
+      </c>
+      <c r="N54" s="352" t="s">
+        <v>545</v>
+      </c>
+      <c r="O54" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="317">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="352" t="s">
+        <v>534</v>
+      </c>
+      <c r="S54" s="348">
+        <v>63</v>
+      </c>
+      <c r="T54" s="344"/>
+      <c r="U54" s="341"/>
+      <c r="V54" s="360" t="s">
+        <v>166</v>
+      </c>
+      <c r="W54" s="341"/>
+      <c r="X54" s="341"/>
+      <c r="Z54" s="336" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA54" s="36"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="58">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="319" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="341"/>
+      <c r="I55" s="341"/>
+      <c r="J55" s="360" t="s">
+        <v>169</v>
+      </c>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="348">
+        <v>64</v>
+      </c>
+      <c r="N55" s="352" t="s">
+        <v>546</v>
+      </c>
+      <c r="O55" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="317">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="378" t="s">
+        <v>388</v>
+      </c>
+      <c r="S55" s="348">
+        <v>65</v>
+      </c>
+      <c r="T55" s="344"/>
+      <c r="U55" s="341"/>
+      <c r="V55" s="341"/>
+      <c r="W55" s="341"/>
+      <c r="X55" s="341"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="58">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="58">
+        <v>4.3</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="36"/>
+      <c r="H56" s="341"/>
+      <c r="I56" s="341"/>
+      <c r="J56" s="341"/>
+      <c r="K56" s="344"/>
+      <c r="L56" s="344"/>
+      <c r="M56" s="348">
+        <v>66</v>
+      </c>
+      <c r="N56" s="378" t="s">
+        <v>391</v>
+      </c>
+      <c r="O56" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="317">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="378" t="s">
+        <v>477</v>
+      </c>
+      <c r="S56" s="348">
+        <v>67</v>
+      </c>
+      <c r="T56" s="344"/>
+      <c r="U56" s="341"/>
+      <c r="V56" s="341"/>
+      <c r="W56" s="341"/>
+      <c r="X56" s="341"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="58">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="36"/>
+      <c r="H57" s="341"/>
+      <c r="I57" s="341"/>
+      <c r="J57" s="360" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="344"/>
+      <c r="L57" s="344"/>
+      <c r="M57" s="348">
+        <v>68</v>
+      </c>
+      <c r="N57" s="378" t="s">
+        <v>547</v>
+      </c>
+      <c r="O57" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="317">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="378" t="s">
+        <v>535</v>
+      </c>
+      <c r="S57" s="348">
+        <v>69</v>
+      </c>
+      <c r="T57" s="344"/>
+      <c r="U57" s="341"/>
+      <c r="V57" s="362" t="s">
+        <v>101</v>
+      </c>
+      <c r="W57" s="341"/>
+      <c r="X57" s="341"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+    </row>
+    <row r="58" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="36"/>
+      <c r="H58" s="341"/>
+      <c r="I58" s="341"/>
+      <c r="J58" s="360" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" s="341"/>
+      <c r="L58" s="344"/>
+      <c r="M58" s="348">
+        <v>70</v>
+      </c>
+      <c r="N58" s="378" t="s">
+        <v>361</v>
+      </c>
+      <c r="O58" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="317">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="378" t="s">
+        <v>364</v>
+      </c>
+      <c r="S58" s="348">
+        <v>71</v>
+      </c>
+      <c r="T58" s="344"/>
+      <c r="U58" s="341"/>
+      <c r="V58" s="379" t="s">
+        <v>96</v>
+      </c>
+      <c r="W58" s="341"/>
+      <c r="X58" s="341"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+    </row>
+    <row r="59" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="36"/>
+      <c r="H59" s="341"/>
+      <c r="I59" s="341"/>
+      <c r="J59" s="379" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59" s="341"/>
+      <c r="L59" s="344"/>
+      <c r="M59" s="348">
+        <v>72</v>
+      </c>
+      <c r="N59" s="378" t="s">
+        <v>179</v>
+      </c>
+      <c r="O59" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="317">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="368" t="s">
+        <v>405</v>
+      </c>
+      <c r="S59" s="348">
+        <v>73</v>
+      </c>
+      <c r="T59" s="344"/>
+      <c r="U59" s="341"/>
+      <c r="V59" s="341"/>
+      <c r="W59" s="383" t="s">
+        <v>37</v>
+      </c>
+      <c r="X59" s="341"/>
+      <c r="Z59" s="336" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA59" s="36"/>
+      <c r="AB59" s="147"/>
+      <c r="AC59" s="146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="3:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Z61" s="373" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA61" s="373" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="3:67" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>74</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Z62" s="373" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA62" s="395" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="O63" s="150"/>
+      <c r="P63" s="150"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="152"/>
+      <c r="V63" s="152"/>
+      <c r="W63" s="152"/>
+      <c r="X63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="3:67" x14ac:dyDescent="0.2">
+      <c r="C64" s="2"/>
+      <c r="D64" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="H64" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="155" t="s">
+        <v>186</v>
+      </c>
+      <c r="O64" s="156"/>
+      <c r="P64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="158">
+        <v>12</v>
+      </c>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C65" s="2"/>
+      <c r="D65" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="H65" s="154" t="s">
+        <v>189</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="154" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="158">
+        <v>11</v>
+      </c>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="154" t="s">
+        <v>196</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="61"/>
+    </row>
+    <row r="69" spans="3:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="2"/>
+      <c r="D69" s="387" t="s">
+        <v>648</v>
+      </c>
+      <c r="E69" s="388" t="s">
+        <v>649</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="H69" s="302" t="s">
+        <v>658</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="3:29" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="2"/>
+      <c r="D70" s="389" t="s">
+        <v>673</v>
+      </c>
+      <c r="E70" s="390" t="s">
+        <v>674</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="H70" s="74" t="s">
+        <v>652</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="154" t="s">
+        <v>204</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="165"/>
+      <c r="X70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+      <c r="D71" s="391" t="s">
+        <v>651</v>
+      </c>
+      <c r="E71" s="392" t="s">
+        <v>651</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="H71" s="303" t="s">
+        <v>653</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="166"/>
+      <c r="N71" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="O71" s="167"/>
+      <c r="P71" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="373" t="s">
+        <v>650</v>
+      </c>
+      <c r="E72" s="393" t="s">
+        <v>650</v>
+      </c>
+      <c r="H72" s="139" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="73" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="357" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="144" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="379" t="s">
+        <v>660</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="83" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="75" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="356" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="363" t="s">
+        <v>675</v>
+      </c>
+      <c r="H75" s="304" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="370" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="371" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="444" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="415" t="s">
+        <v>661</v>
+      </c>
+      <c r="J77" s="337"/>
+    </row>
+    <row r="78" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="3:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z79" s="398" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA79" s="399"/>
+    </row>
+    <row r="80" spans="3:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="396" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA81" s="397"/>
+    </row>
+    <row r="82" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="446" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q83" s="447"/>
+      <c r="Z83" s="373" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="5:27" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z85" s="373" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="301" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" s="445" t="s">
+        <v>710</v>
+      </c>
+      <c r="M86" s="348">
+        <v>39</v>
+      </c>
+      <c r="N86" s="378" t="s">
+        <v>526</v>
+      </c>
+      <c r="O86">
+        <v>8</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86" s="378" t="s">
+        <v>315</v>
+      </c>
+      <c r="S86" s="348">
+        <v>84</v>
+      </c>
+      <c r="T86" s="356" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="356" t="s">
+        <v>137</v>
+      </c>
+      <c r="M87" s="348">
+        <v>42</v>
+      </c>
+      <c r="N87" s="378" t="s">
+        <v>346</v>
+      </c>
+      <c r="O87">
+        <v>7</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87" s="378" t="s">
+        <v>334</v>
+      </c>
+      <c r="S87" s="348">
+        <v>43</v>
+      </c>
+      <c r="T87" s="356" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="356" t="s">
+        <v>349</v>
+      </c>
+      <c r="M88" s="348">
+        <v>40</v>
+      </c>
+      <c r="N88" s="378" t="s">
+        <v>538</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88" s="378" t="s">
+        <v>527</v>
+      </c>
+      <c r="S88" s="348">
+        <v>41</v>
+      </c>
+      <c r="T88" s="356" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="5:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N89" s="415" t="s">
+        <v>407</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89" s="444" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="BM42:BO42"/>
+    <mergeCell ref="AY42:BA42"/>
+    <mergeCell ref="AX28:AX31"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="AY39:AZ39"/>
+    <mergeCell ref="BK39:BL39"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="Z81:AA81"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>